--- a/Produtos_Atualizado.xlsx
+++ b/Produtos_Atualizado.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.881699999999999</v>
+        <v>4.9037</v>
       </c>
       <c r="E2" t="n">
-        <v>4881.651183</v>
+        <v>4903.650963</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>6834.3116562</v>
+        <v>6865.1113482</v>
       </c>
     </row>
     <row r="3">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.153049294000001</v>
+        <v>5.2501</v>
       </c>
       <c r="E3" t="n">
-        <v>23188.721823</v>
+        <v>23625.45</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>46377.44364600001</v>
+        <v>47250.9</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.881699999999999</v>
+        <v>4.9037</v>
       </c>
       <c r="E4" t="n">
-        <v>4393.481183</v>
+        <v>4413.280963</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>7468.9180111</v>
+        <v>7502.5776371</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.881699999999999</v>
+        <v>4.9037</v>
       </c>
       <c r="E5" t="n">
-        <v>3900.4783</v>
+        <v>3918.0563</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>6630.813109999999</v>
+        <v>6660.695709999999</v>
       </c>
     </row>
     <row r="6">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.153049294000001</v>
+        <v>5.2501</v>
       </c>
       <c r="E6" t="n">
-        <v>15459.147882</v>
+        <v>15750.3</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>29372.3809758</v>
+        <v>29925.57</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.881699999999999</v>
+        <v>4.9037</v>
       </c>
       <c r="E7" t="n">
-        <v>2345.559216</v>
+        <v>2356.129776</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>4691.118431999999</v>
+        <v>4712.259552</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>289.49</v>
+        <v>292.18</v>
       </c>
       <c r="E8" t="n">
-        <v>5789.8</v>
+        <v>5843.6</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>6658.27</v>
+        <v>6720.14</v>
       </c>
     </row>
   </sheetData>
